--- a/data/pca/factorExposure/factorExposure_2010-05-04.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-05-04.xlsx
@@ -723,19 +723,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0.01411520430445933</v>
+        <v>-0.01707689661558169</v>
       </c>
       <c r="C2">
-        <v>-0.004376480864622425</v>
+        <v>-0.001159358690958597</v>
       </c>
       <c r="D2">
-        <v>-0.01422732527168689</v>
+        <v>-0.008475586144240391</v>
       </c>
       <c r="E2">
-        <v>0.01974083133674555</v>
+        <v>-0.0008951505613139204</v>
       </c>
       <c r="F2">
-        <v>-0.02396279510338009</v>
+        <v>0.01118301465477363</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -763,19 +763,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0.1173194247897109</v>
+        <v>-0.09322106757483467</v>
       </c>
       <c r="C4">
-        <v>-0.08566935057182022</v>
+        <v>-0.01705565416183229</v>
       </c>
       <c r="D4">
-        <v>0.02219451277187745</v>
+        <v>-0.08341493268000338</v>
       </c>
       <c r="E4">
-        <v>0.01610066563721485</v>
+        <v>0.03000157115860171</v>
       </c>
       <c r="F4">
-        <v>-0.04327080682514127</v>
+        <v>-0.03304314894838901</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -803,19 +803,19 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>0.1291983004789</v>
+        <v>-0.1531519989447238</v>
       </c>
       <c r="C6">
-        <v>-0.03532758257786272</v>
+        <v>-0.02485296979631875</v>
       </c>
       <c r="D6">
-        <v>-0.0129994633633762</v>
+        <v>0.02243868237199082</v>
       </c>
       <c r="E6">
-        <v>-0.04534180654868436</v>
+        <v>0.009158316037022803</v>
       </c>
       <c r="F6">
-        <v>0.04336056311569755</v>
+        <v>-0.04174846361093685</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -823,19 +823,19 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>0.07742973338935873</v>
+        <v>-0.06017004865218233</v>
       </c>
       <c r="C7">
-        <v>-0.08266665687325293</v>
+        <v>0.000340166283112685</v>
       </c>
       <c r="D7">
-        <v>-0.001988807385349025</v>
+        <v>-0.05148671307146974</v>
       </c>
       <c r="E7">
-        <v>0.03871524142577579</v>
+        <v>0.01532955531146033</v>
       </c>
       <c r="F7">
-        <v>-0.01271963859945953</v>
+        <v>-0.05425810298607193</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -843,19 +843,19 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>0.0476942746734831</v>
+        <v>-0.05869123400153039</v>
       </c>
       <c r="C8">
-        <v>-0.04423789672452701</v>
+        <v>0.01274561061551399</v>
       </c>
       <c r="D8">
-        <v>0.0003832427511569374</v>
+        <v>-0.02979833519220492</v>
       </c>
       <c r="E8">
-        <v>-0.03215394300056198</v>
+        <v>0.01432189748815021</v>
       </c>
       <c r="F8">
-        <v>-0.01390313424869695</v>
+        <v>0.02961425923950277</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -863,19 +863,19 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>0.08444535373757561</v>
+        <v>-0.07128959020992633</v>
       </c>
       <c r="C9">
-        <v>-0.07009548437187722</v>
+        <v>-0.01318859785777794</v>
       </c>
       <c r="D9">
-        <v>0.03168259123690952</v>
+        <v>-0.08342928962054472</v>
       </c>
       <c r="E9">
-        <v>0.01063847144283837</v>
+        <v>0.02544705881159135</v>
       </c>
       <c r="F9">
-        <v>-0.02430071275691644</v>
+        <v>-0.05494376161633808</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -883,19 +883,19 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>0.1256107898398838</v>
+        <v>-0.09384947507917854</v>
       </c>
       <c r="C10">
-        <v>0.15870413250192</v>
+        <v>-0.01665497416327255</v>
       </c>
       <c r="D10">
-        <v>-0.02169742879963327</v>
+        <v>0.1715195483450543</v>
       </c>
       <c r="E10">
-        <v>0.0338729980312452</v>
+        <v>-0.03776983774190932</v>
       </c>
       <c r="F10">
-        <v>-0.00680204654459663</v>
+        <v>0.05289935802709611</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -903,19 +903,19 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>0.07781889791428684</v>
+        <v>-0.08789544253764474</v>
       </c>
       <c r="C11">
-        <v>-0.0726192598533603</v>
+        <v>-0.01258872651909333</v>
       </c>
       <c r="D11">
-        <v>0.03502128164737518</v>
+        <v>-0.114059391522218</v>
       </c>
       <c r="E11">
-        <v>-0.004148438488876255</v>
+        <v>0.0479170714532679</v>
       </c>
       <c r="F11">
-        <v>-0.02814108197433497</v>
+        <v>-0.02301914005556403</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -923,19 +923,19 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>0.06979665371090076</v>
+        <v>-0.0931282724274537</v>
       </c>
       <c r="C12">
-        <v>-0.07048579905194383</v>
+        <v>-0.010410426038009</v>
       </c>
       <c r="D12">
-        <v>0.05338266582323343</v>
+        <v>-0.1210760480835633</v>
       </c>
       <c r="E12">
-        <v>0.01708020911216793</v>
+        <v>0.04725742294629989</v>
       </c>
       <c r="F12">
-        <v>0.002599065660034849</v>
+        <v>-0.02477563743178185</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -943,19 +943,19 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>0.03100709324365447</v>
+        <v>-0.04287032732367892</v>
       </c>
       <c r="C13">
-        <v>-0.02923283907475623</v>
+        <v>-0.003983945545084123</v>
       </c>
       <c r="D13">
-        <v>-0.01707233713769678</v>
+        <v>-0.04746673554817287</v>
       </c>
       <c r="E13">
-        <v>0.01605779710374883</v>
+        <v>-0.01180274461004205</v>
       </c>
       <c r="F13">
-        <v>0.00467215302346138</v>
+        <v>-0.01535255636098663</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -963,19 +963,19 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>0.03663377014050456</v>
+        <v>-0.02207933292867412</v>
       </c>
       <c r="C14">
-        <v>-0.03124771749700416</v>
+        <v>-0.01462943096209266</v>
       </c>
       <c r="D14">
-        <v>0.02328804641564014</v>
+        <v>-0.03294345724054017</v>
       </c>
       <c r="E14">
-        <v>-0.001479653848585163</v>
+        <v>0.01910076005618446</v>
       </c>
       <c r="F14">
-        <v>0.007690285772105404</v>
+        <v>-0.01932305301671391</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -983,19 +983,19 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>0.0161774613351649</v>
+        <v>-0.03191222224095087</v>
       </c>
       <c r="C15">
-        <v>-0.02146873368833712</v>
+        <v>-0.005514724213514722</v>
       </c>
       <c r="D15">
-        <v>-0.0667407014771778</v>
+        <v>-0.04558914498057931</v>
       </c>
       <c r="E15">
-        <v>0.01053921260916841</v>
+        <v>0.009166907226936036</v>
       </c>
       <c r="F15">
-        <v>-0.008066605599749865</v>
+        <v>-0.03200970939095255</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1003,19 +1003,19 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>0.08145207840215915</v>
+        <v>-0.07434085723393392</v>
       </c>
       <c r="C16">
-        <v>-0.06874706283280496</v>
+        <v>-0.004046826078766907</v>
       </c>
       <c r="D16">
-        <v>0.0455106870845611</v>
+        <v>-0.1160885384871334</v>
       </c>
       <c r="E16">
-        <v>-0.02269838274773556</v>
+        <v>0.06245520959315572</v>
       </c>
       <c r="F16">
-        <v>-0.01563974361358399</v>
+        <v>-0.03316542196227235</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1043,19 +1043,19 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-0.02166493696540296</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.003757657025167186</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>-0.02132206147035751</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>-0.01097665942418503</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.02398754169487442</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1083,19 +1083,19 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>0.04396072099949026</v>
+        <v>-0.06136285085379267</v>
       </c>
       <c r="C20">
-        <v>-0.04663355847358485</v>
+        <v>-0.001896556450847198</v>
       </c>
       <c r="D20">
-        <v>-0.02820536183467881</v>
+        <v>-0.07421818765834783</v>
       </c>
       <c r="E20">
-        <v>0.02932859151787554</v>
+        <v>0.05560378003575115</v>
       </c>
       <c r="F20">
-        <v>0.01020301333020619</v>
+        <v>-0.02941602843809618</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1103,19 +1103,19 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>0.02322216409084537</v>
+        <v>-0.0386724572988557</v>
       </c>
       <c r="C21">
-        <v>-0.00840305618890008</v>
+        <v>-0.007756366320734189</v>
       </c>
       <c r="D21">
-        <v>0.01494904069835427</v>
+        <v>-0.03532324694872799</v>
       </c>
       <c r="E21">
-        <v>-0.002514119990364799</v>
+        <v>-0.008486456238832445</v>
       </c>
       <c r="F21">
-        <v>-0.01476883704430314</v>
+        <v>0.01974161239550865</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1123,19 +1123,19 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>0.055827969249367</v>
+        <v>-0.04177669236417506</v>
       </c>
       <c r="C22">
-        <v>-0.0223660162849779</v>
+        <v>-5.292189039651856e-06</v>
       </c>
       <c r="D22">
-        <v>-0.6310194139840799</v>
+        <v>-0.002964154051073907</v>
       </c>
       <c r="E22">
-        <v>0.0966935442059785</v>
+        <v>0.02952974403230295</v>
       </c>
       <c r="F22">
-        <v>0.1369768065922639</v>
+        <v>0.01197477118810185</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1143,19 +1143,19 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>0.05645976003824558</v>
+        <v>-0.04183830886078176</v>
       </c>
       <c r="C23">
-        <v>-0.02357813467340103</v>
+        <v>-3.023016276038491e-05</v>
       </c>
       <c r="D23">
-        <v>-0.6333102734513812</v>
+        <v>-0.003085118792762107</v>
       </c>
       <c r="E23">
-        <v>0.09589053399258514</v>
+        <v>0.02988059440864304</v>
       </c>
       <c r="F23">
-        <v>0.1367869966120062</v>
+        <v>0.01151536831104111</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1163,19 +1163,19 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>0.08163721149828441</v>
+        <v>-0.0807636139920721</v>
       </c>
       <c r="C24">
-        <v>-0.07038009442934068</v>
+        <v>-0.004396013979898882</v>
       </c>
       <c r="D24">
-        <v>0.04136579538355234</v>
+        <v>-0.1170934931849022</v>
       </c>
       <c r="E24">
-        <v>-0.001745090014339555</v>
+        <v>0.05026338801338383</v>
       </c>
       <c r="F24">
-        <v>-0.02334372507614629</v>
+        <v>-0.02545360690716072</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1183,19 +1183,19 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>0.08313863551929261</v>
+        <v>-0.08525825698425496</v>
       </c>
       <c r="C25">
-        <v>-0.06778488422197973</v>
+        <v>-0.006397735592092234</v>
       </c>
       <c r="D25">
-        <v>0.05317387720521019</v>
+        <v>-0.1054905647667354</v>
       </c>
       <c r="E25">
-        <v>0.01060931042968208</v>
+        <v>0.03339906588923381</v>
       </c>
       <c r="F25">
-        <v>-0.01493776510365752</v>
+        <v>-0.03328998273380187</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1203,19 +1203,19 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>0.04097781288212334</v>
+        <v>-0.0553958159905806</v>
       </c>
       <c r="C26">
-        <v>0.000476900342540776</v>
+        <v>-0.01527294937578113</v>
       </c>
       <c r="D26">
-        <v>-0.008601552604164956</v>
+        <v>-0.03586479345560944</v>
       </c>
       <c r="E26">
-        <v>-0.02282919124632667</v>
+        <v>0.02790829717065596</v>
       </c>
       <c r="F26">
-        <v>0.04792477788607701</v>
+        <v>0.007376905297933692</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1243,19 +1243,19 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>0.1434863313222625</v>
+        <v>-0.1414479322357484</v>
       </c>
       <c r="C28">
-        <v>0.2871497644313754</v>
+        <v>-0.01451454124706448</v>
       </c>
       <c r="D28">
-        <v>-0.0003260528138994671</v>
+        <v>0.2675884127874426</v>
       </c>
       <c r="E28">
-        <v>-0.06824284797753891</v>
+        <v>-0.06789822843308384</v>
       </c>
       <c r="F28">
-        <v>0.02243232385041654</v>
+        <v>-0.03242277196402078</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1263,19 +1263,19 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>0.03551385246446054</v>
+        <v>-0.02706408252441615</v>
       </c>
       <c r="C29">
-        <v>-0.03023728881407553</v>
+        <v>-0.008873385236305181</v>
       </c>
       <c r="D29">
-        <v>0.02785247434164511</v>
+        <v>-0.03154615137003126</v>
       </c>
       <c r="E29">
-        <v>0.03321969519763474</v>
+        <v>0.01195122515959507</v>
       </c>
       <c r="F29">
-        <v>0.01974634618671209</v>
+        <v>0.01113320815408679</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1283,19 +1283,19 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>0.09819691239756954</v>
+        <v>-0.06379748416913447</v>
       </c>
       <c r="C30">
-        <v>-0.1049369170589537</v>
+        <v>-0.005888933371780578</v>
       </c>
       <c r="D30">
-        <v>0.07270110176557112</v>
+        <v>-0.08327187652049611</v>
       </c>
       <c r="E30">
-        <v>-0.05819132218158572</v>
+        <v>0.02543289762886713</v>
       </c>
       <c r="F30">
-        <v>0.1014632016455751</v>
+        <v>-0.1080267751318699</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1303,19 +1303,19 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>0.03073941090561356</v>
+        <v>-0.04847210015594695</v>
       </c>
       <c r="C31">
-        <v>-0.04670089148732695</v>
+        <v>-0.01517570604778245</v>
       </c>
       <c r="D31">
-        <v>0.004231335485440876</v>
+        <v>-0.02799585307206224</v>
       </c>
       <c r="E31">
-        <v>0.01763159201262016</v>
+        <v>0.02726390381701023</v>
       </c>
       <c r="F31">
-        <v>-0.006853440065136988</v>
+        <v>0.003627096223010939</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1323,19 +1323,19 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>0.05615080716602988</v>
+        <v>-0.04838173140106298</v>
       </c>
       <c r="C32">
-        <v>-0.03265480645569267</v>
+        <v>-0.0005038718451326734</v>
       </c>
       <c r="D32">
-        <v>0.05096591242830855</v>
+        <v>-0.03068648255010635</v>
       </c>
       <c r="E32">
-        <v>-0.05632340049835919</v>
+        <v>0.02945192633513566</v>
       </c>
       <c r="F32">
-        <v>-0.01461232588079781</v>
+        <v>-0.002186073453234484</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1343,19 +1343,19 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>0.09221660767127789</v>
+        <v>-0.09041426524980677</v>
       </c>
       <c r="C33">
-        <v>-0.06912852628995582</v>
+        <v>-0.009570612493850396</v>
       </c>
       <c r="D33">
-        <v>0.03764897375085877</v>
+        <v>-0.09386069308070102</v>
       </c>
       <c r="E33">
-        <v>0.007963690514099005</v>
+        <v>0.04679382617106424</v>
       </c>
       <c r="F33">
-        <v>-0.0116304281208132</v>
+        <v>-0.04201129362558245</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1363,19 +1363,19 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>0.06910597085192467</v>
+        <v>-0.06853909092202659</v>
       </c>
       <c r="C34">
-        <v>-0.05449519425551089</v>
+        <v>-0.01255851642531485</v>
       </c>
       <c r="D34">
-        <v>0.04710368737082811</v>
+        <v>-0.09789202125773543</v>
       </c>
       <c r="E34">
-        <v>-0.003617816179606746</v>
+        <v>0.03530018244983311</v>
       </c>
       <c r="F34">
-        <v>-0.01683691519265703</v>
+        <v>-0.04565863827729123</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1383,19 +1383,19 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>0.01115735089946173</v>
+        <v>-0.02438161007218891</v>
       </c>
       <c r="C35">
-        <v>-0.01689364290431868</v>
+        <v>-0.002549189498848638</v>
       </c>
       <c r="D35">
-        <v>0.004602644048536907</v>
+        <v>-0.01155170132560068</v>
       </c>
       <c r="E35">
-        <v>0.01539506510782035</v>
+        <v>0.01140387653657112</v>
       </c>
       <c r="F35">
-        <v>0.002579766598129437</v>
+        <v>-0.01052102284811904</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1403,19 +1403,19 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>0.02361739592234178</v>
+        <v>-0.02411386585359761</v>
       </c>
       <c r="C36">
-        <v>-0.02072752049611894</v>
+        <v>-0.007474783018437216</v>
       </c>
       <c r="D36">
-        <v>-0.00831930934233896</v>
+        <v>-0.03845985358420658</v>
       </c>
       <c r="E36">
-        <v>-0.004903597571575358</v>
+        <v>0.01710167111028716</v>
       </c>
       <c r="F36">
-        <v>0.01307901546282091</v>
+        <v>-0.01124905514403759</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1443,19 +1443,19 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>0.01058787542365263</v>
+        <v>-0.00173564311404457</v>
       </c>
       <c r="C38">
-        <v>-0.01832137426912035</v>
+        <v>-0.0002901631256464171</v>
       </c>
       <c r="D38">
-        <v>-0.0258053833124204</v>
+        <v>-0.001627512566396457</v>
       </c>
       <c r="E38">
-        <v>0.03239569341517194</v>
+        <v>0.001860126646327189</v>
       </c>
       <c r="F38">
-        <v>0.08178429571970422</v>
+        <v>0.0006705986819631664</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1463,19 +1463,19 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>0.1119415487409553</v>
+        <v>-0.1095707582867482</v>
       </c>
       <c r="C39">
-        <v>-0.1043386677888024</v>
+        <v>-0.01802914469550862</v>
       </c>
       <c r="D39">
-        <v>0.1536444851391865</v>
+        <v>-0.1518339704699778</v>
       </c>
       <c r="E39">
-        <v>-0.007736031800621604</v>
+        <v>0.0598861611638541</v>
       </c>
       <c r="F39">
-        <v>0.07194288335241091</v>
+        <v>-0.03428861329035719</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1483,19 +1483,19 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>0.02202724371546983</v>
+        <v>-0.03696311589836899</v>
       </c>
       <c r="C40">
-        <v>-0.06760696308911783</v>
+        <v>-0.007362355108767814</v>
       </c>
       <c r="D40">
-        <v>-0.02098597261699176</v>
+        <v>-0.03194428896067572</v>
       </c>
       <c r="E40">
-        <v>0.05514879151504206</v>
+        <v>0.004406778604950772</v>
       </c>
       <c r="F40">
-        <v>-0.03402897551083173</v>
+        <v>0.01522155633060918</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1503,19 +1503,19 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>0.02891315152764299</v>
+        <v>-0.02612515160848533</v>
       </c>
       <c r="C41">
-        <v>-0.01615343916644097</v>
+        <v>-0.006850464994601086</v>
       </c>
       <c r="D41">
-        <v>0.01856201946907685</v>
+        <v>-0.01062769736936842</v>
       </c>
       <c r="E41">
-        <v>0.01026450340953632</v>
+        <v>0.01186506499791956</v>
       </c>
       <c r="F41">
-        <v>0.02479694405172251</v>
+        <v>0.009276890184528421</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1543,19 +1543,19 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>0.03792216231348455</v>
+        <v>-0.04108459802795372</v>
       </c>
       <c r="C43">
-        <v>-0.01631986760243544</v>
+        <v>-0.006835246487453821</v>
       </c>
       <c r="D43">
-        <v>-0.005836446887114945</v>
+        <v>-0.02001134818329657</v>
       </c>
       <c r="E43">
-        <v>-0.0007271666885758997</v>
+        <v>0.02462795010704802</v>
       </c>
       <c r="F43">
-        <v>0.0602921173560655</v>
+        <v>0.01068713684526366</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1563,19 +1563,19 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>0.134031450980144</v>
+        <v>-0.07204474752133107</v>
       </c>
       <c r="C44">
-        <v>-0.1597066467117395</v>
+        <v>-0.02215159071346482</v>
       </c>
       <c r="D44">
-        <v>-0.07498701321976955</v>
+        <v>-0.1007711762602784</v>
       </c>
       <c r="E44">
-        <v>0.09348874326039204</v>
+        <v>0.06787555426926499</v>
       </c>
       <c r="F44">
-        <v>0.003569878546638437</v>
+        <v>-0.1698624357959758</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1603,19 +1603,19 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>0.0286438371229077</v>
+        <v>-0.02204047736855809</v>
       </c>
       <c r="C46">
-        <v>-0.00218792422824803</v>
+        <v>-0.004225875540433238</v>
       </c>
       <c r="D46">
-        <v>-0.02867250237736502</v>
+        <v>-0.01115425797987066</v>
       </c>
       <c r="E46">
-        <v>0.03077834498631488</v>
+        <v>0.02296796580436094</v>
       </c>
       <c r="F46">
-        <v>0.03334086972574779</v>
+        <v>-0.001341582840153067</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1623,19 +1623,19 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>0.03795805322764168</v>
+        <v>-0.05198486838461589</v>
       </c>
       <c r="C47">
-        <v>-0.0319268672220057</v>
+        <v>-0.003400310635635328</v>
       </c>
       <c r="D47">
-        <v>0.005609096906755725</v>
+        <v>-0.01229252134337356</v>
       </c>
       <c r="E47">
-        <v>0.01371492327499604</v>
+        <v>0.02172764158266072</v>
       </c>
       <c r="F47">
-        <v>0.002360282159563697</v>
+        <v>0.04371561940499937</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1643,19 +1643,19 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>0.04423574715845848</v>
+        <v>-0.04776756162165677</v>
       </c>
       <c r="C48">
-        <v>-0.02336860952741749</v>
+        <v>-0.003334202840848298</v>
       </c>
       <c r="D48">
-        <v>0.01276914514682607</v>
+        <v>-0.04796850558176965</v>
       </c>
       <c r="E48">
-        <v>0.02049097873309427</v>
+        <v>-0.004092682017172649</v>
       </c>
       <c r="F48">
-        <v>-0.0314859997906833</v>
+        <v>-0.01226015683650976</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1663,19 +1663,19 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>0.2200648869654991</v>
+        <v>-0.2031326927812548</v>
       </c>
       <c r="C49">
-        <v>0.01842270979310793</v>
+        <v>-0.01710955076084139</v>
       </c>
       <c r="D49">
-        <v>0.02742942533998054</v>
+        <v>0.01027595448329502</v>
       </c>
       <c r="E49">
-        <v>0.07851176746352168</v>
+        <v>0.03479498185862018</v>
       </c>
       <c r="F49">
-        <v>-0.05162994145443136</v>
+        <v>-0.03284495563491881</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1683,19 +1683,19 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>0.03989381341408583</v>
+        <v>-0.04850301814701775</v>
       </c>
       <c r="C50">
-        <v>-0.03276190203342876</v>
+        <v>-0.01131746207253519</v>
       </c>
       <c r="D50">
-        <v>0.0236421438048732</v>
+        <v>-0.02642962278901361</v>
       </c>
       <c r="E50">
-        <v>0.007229909746313462</v>
+        <v>0.02908251562455487</v>
       </c>
       <c r="F50">
-        <v>0.01992918634372376</v>
+        <v>-0.009139673181819354</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1703,19 +1703,19 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>0.01747748775483275</v>
+        <v>-0.002590962695472548</v>
       </c>
       <c r="C51">
-        <v>0.01996212230422226</v>
+        <v>-0.0006569304767590702</v>
       </c>
       <c r="D51">
-        <v>-0.005236303758137956</v>
+        <v>0.002893596392065576</v>
       </c>
       <c r="E51">
-        <v>0.008630830670066337</v>
+        <v>-0.00028110451836185</v>
       </c>
       <c r="F51">
-        <v>-0.008172255568185474</v>
+        <v>-0.005723727378361593</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1723,19 +1723,19 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>0.08670558342574942</v>
+        <v>-0.1447940720477763</v>
       </c>
       <c r="C52">
-        <v>-0.07865848231425462</v>
+        <v>-0.01356368339259693</v>
       </c>
       <c r="D52">
-        <v>0.01513971620725674</v>
+        <v>-0.05094704213504385</v>
       </c>
       <c r="E52">
-        <v>0.02292700035115625</v>
+        <v>0.02242474367949509</v>
       </c>
       <c r="F52">
-        <v>0.04512358276579853</v>
+        <v>-0.03482510951007884</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1743,19 +1743,19 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1564093203357674</v>
+        <v>-0.1738922747216074</v>
       </c>
       <c r="C53">
-        <v>-0.04129646886997125</v>
+        <v>-0.01640248118198438</v>
       </c>
       <c r="D53">
-        <v>-0.01115371537322282</v>
+        <v>-0.0116269160137533</v>
       </c>
       <c r="E53">
-        <v>0.04597639857943819</v>
+        <v>0.03536179457113129</v>
       </c>
       <c r="F53">
-        <v>0.07788671857204349</v>
+        <v>-0.06360098244097588</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1763,19 +1763,19 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>0.05883666534419543</v>
+        <v>-0.02201282905521714</v>
       </c>
       <c r="C54">
-        <v>-0.06646241360486749</v>
+        <v>-0.01246172280748563</v>
       </c>
       <c r="D54">
-        <v>-0.000776288287070789</v>
+        <v>-0.03444509468613317</v>
       </c>
       <c r="E54">
-        <v>0.01813030433989463</v>
+        <v>0.0152168218127421</v>
       </c>
       <c r="F54">
-        <v>-0.01548177209429476</v>
+        <v>0.00307701390221911</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1783,19 +1783,19 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>0.08760999995891812</v>
+        <v>-0.1144531280486291</v>
       </c>
       <c r="C55">
-        <v>-0.04258179059605768</v>
+        <v>-0.01505874959857018</v>
       </c>
       <c r="D55">
-        <v>0.03128127594887164</v>
+        <v>-0.01121726677593811</v>
       </c>
       <c r="E55">
-        <v>0.02020102389075697</v>
+        <v>0.03063739673786871</v>
       </c>
       <c r="F55">
-        <v>0.02962176941633029</v>
+        <v>-0.04615602581701519</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1803,19 +1803,19 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1520642813107098</v>
+        <v>-0.1777302972293955</v>
       </c>
       <c r="C56">
-        <v>-0.07165790546542139</v>
+        <v>-0.01382789091153013</v>
       </c>
       <c r="D56">
-        <v>0.02374057674697604</v>
+        <v>-0.007199306555555347</v>
       </c>
       <c r="E56">
-        <v>0.07977216733887309</v>
+        <v>0.04002369265077271</v>
       </c>
       <c r="F56">
-        <v>0.04904285555933154</v>
+        <v>-0.04004885135732852</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1843,19 +1843,19 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>0.0572727247112499</v>
+        <v>-0.04623804523911679</v>
       </c>
       <c r="C58">
-        <v>-0.03939727793736505</v>
+        <v>-0.002448706843264446</v>
       </c>
       <c r="D58">
-        <v>-0.04870945274972961</v>
+        <v>-0.06518696406670056</v>
       </c>
       <c r="E58">
-        <v>0.0319770171840045</v>
+        <v>0.02238125483859503</v>
       </c>
       <c r="F58">
-        <v>0.03018319983731676</v>
+        <v>0.0455931188301841</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1863,19 +1863,19 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>0.2042689273491384</v>
+        <v>-0.1713620985640626</v>
       </c>
       <c r="C59">
-        <v>0.2357097063902071</v>
+        <v>-0.01601452761693601</v>
       </c>
       <c r="D59">
-        <v>0.03988308815654124</v>
+        <v>0.2259117800175413</v>
       </c>
       <c r="E59">
-        <v>-0.02666252845853078</v>
+        <v>-0.04882456136266143</v>
       </c>
       <c r="F59">
-        <v>-0.08100933292891992</v>
+        <v>0.03091704222650071</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1883,19 +1883,19 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>0.2364027441607742</v>
+        <v>-0.2373993501258102</v>
       </c>
       <c r="C60">
-        <v>-0.0870345156342187</v>
+        <v>0.003979583206103817</v>
       </c>
       <c r="D60">
-        <v>0.06704280184896491</v>
+        <v>-0.0466372702556703</v>
       </c>
       <c r="E60">
-        <v>0.1140550156051673</v>
+        <v>0.006412177979423432</v>
       </c>
       <c r="F60">
-        <v>0.001334130858726482</v>
+        <v>0.03014344204837536</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1903,19 +1903,19 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>0.1035348411381259</v>
+        <v>-0.08426073501923867</v>
       </c>
       <c r="C61">
-        <v>-0.06308154623076648</v>
+        <v>-0.01409857068787945</v>
       </c>
       <c r="D61">
-        <v>0.09751277404079382</v>
+        <v>-0.1120748708642093</v>
       </c>
       <c r="E61">
-        <v>0.02114156247147875</v>
+        <v>0.04115167665307295</v>
       </c>
       <c r="F61">
-        <v>0.0221425289607464</v>
+        <v>-0.01966860450125216</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1923,19 +1923,19 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1507577952262721</v>
+        <v>-0.1705086751011931</v>
       </c>
       <c r="C62">
-        <v>-0.05163998352323385</v>
+        <v>-0.01777815066389306</v>
       </c>
       <c r="D62">
-        <v>-0.00951040702940221</v>
+        <v>-0.0107524339441058</v>
       </c>
       <c r="E62">
-        <v>0.0582659766935447</v>
+        <v>0.03750612289445178</v>
       </c>
       <c r="F62">
-        <v>0.04865150067535033</v>
+        <v>-0.0217955458326392</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1943,19 +1943,19 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>0.0420308441289462</v>
+        <v>-0.04285742994669549</v>
       </c>
       <c r="C63">
-        <v>-0.02048430747474781</v>
+        <v>-0.003574707636087204</v>
       </c>
       <c r="D63">
-        <v>0.01066558027916831</v>
+        <v>-0.0503514895571893</v>
       </c>
       <c r="E63">
-        <v>-0.02793166710484735</v>
+        <v>0.02191963117791239</v>
       </c>
       <c r="F63">
-        <v>-0.0002777290648190937</v>
+        <v>-0.008417987335417357</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1963,19 +1963,19 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>0.0921859876903536</v>
+        <v>-0.1123095386332071</v>
       </c>
       <c r="C64">
-        <v>-0.04971195991418887</v>
+        <v>-0.01209045650503964</v>
       </c>
       <c r="D64">
-        <v>0.01308955051133485</v>
+        <v>-0.04191163894610372</v>
       </c>
       <c r="E64">
-        <v>0.06395340900606988</v>
+        <v>0.02078732063393787</v>
       </c>
       <c r="F64">
-        <v>0.05098878215282232</v>
+        <v>-0.02485035055191822</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1983,19 +1983,19 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1155519877200167</v>
+        <v>-0.1444990763545348</v>
       </c>
       <c r="C65">
-        <v>-0.01955805795852653</v>
+        <v>-0.03120741458000845</v>
       </c>
       <c r="D65">
-        <v>0.01210311205502636</v>
+        <v>0.0434047924009029</v>
       </c>
       <c r="E65">
-        <v>-0.05840911124171699</v>
+        <v>0.0004323539385641162</v>
       </c>
       <c r="F65">
-        <v>0.08710135290180532</v>
+        <v>-0.0428982586763035</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2003,19 +2003,19 @@
         <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1287686834085189</v>
+        <v>-0.13118133980386</v>
       </c>
       <c r="C66">
-        <v>-0.1254194571212924</v>
+        <v>-0.01568379406914783</v>
       </c>
       <c r="D66">
-        <v>0.1431217917089108</v>
+        <v>-0.1392925826261372</v>
       </c>
       <c r="E66">
-        <v>0.01590131270492084</v>
+        <v>0.06639652755331618</v>
       </c>
       <c r="F66">
-        <v>0.08589988462601801</v>
+        <v>-0.03917759467971738</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2023,19 +2023,19 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>0.05562047607062637</v>
+        <v>-0.06259985610854665</v>
       </c>
       <c r="C67">
-        <v>-0.02917318616635844</v>
+        <v>-0.003529915231756746</v>
       </c>
       <c r="D67">
-        <v>-0.03426191431464624</v>
+        <v>-0.05388707385941194</v>
       </c>
       <c r="E67">
-        <v>0.01509831787129672</v>
+        <v>0.01959623431279525</v>
       </c>
       <c r="F67">
-        <v>0.07375066855662725</v>
+        <v>0.0400542426666415</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2043,19 +2043,19 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>0.1199091408352932</v>
+        <v>-0.1152405320118255</v>
       </c>
       <c r="C68">
-        <v>0.2506442702209055</v>
+        <v>-0.02540115303075909</v>
       </c>
       <c r="D68">
-        <v>0.01403156982765491</v>
+        <v>0.2650603094516361</v>
       </c>
       <c r="E68">
-        <v>-0.07218618421065247</v>
+        <v>-0.08625535464276944</v>
       </c>
       <c r="F68">
-        <v>0.006879895150522158</v>
+        <v>-0.03782679298043621</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2063,19 +2063,19 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>0.03683110915141853</v>
+        <v>-0.03930224060656801</v>
       </c>
       <c r="C69">
-        <v>0.01392168094564664</v>
+        <v>-0.001104758998820622</v>
       </c>
       <c r="D69">
-        <v>-0.002349817062541891</v>
+        <v>-0.008967938354550521</v>
       </c>
       <c r="E69">
-        <v>0.006650564893539747</v>
+        <v>0.02402086606942274</v>
       </c>
       <c r="F69">
-        <v>0.05586498917244437</v>
+        <v>0.01267394788120738</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2083,19 +2083,19 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>0.03607698796537641</v>
+        <v>-0.06375652876115105</v>
       </c>
       <c r="C70">
-        <v>-0.009885850968939614</v>
+        <v>0.02765076198351527</v>
       </c>
       <c r="D70">
-        <v>0.03854533123579449</v>
+        <v>-0.02638671610676333</v>
       </c>
       <c r="E70">
-        <v>0.01657504347215029</v>
+        <v>-0.04835921846223297</v>
       </c>
       <c r="F70">
-        <v>0.08065718690524729</v>
+        <v>0.2833067992892537</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2103,19 +2103,19 @@
         <v>74</v>
       </c>
       <c r="B71">
-        <v>0.1388159526620893</v>
+        <v>-0.1340463719033151</v>
       </c>
       <c r="C71">
-        <v>0.269324184152529</v>
+        <v>-0.02968204817223489</v>
       </c>
       <c r="D71">
-        <v>0.008852732093804832</v>
+        <v>0.2804668821227859</v>
       </c>
       <c r="E71">
-        <v>-0.03480121383682361</v>
+        <v>-0.09476471333466943</v>
       </c>
       <c r="F71">
-        <v>0.05212551196738077</v>
+        <v>-0.04251567768317457</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2123,19 +2123,19 @@
         <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1433016028272385</v>
+        <v>-0.1395862179617223</v>
       </c>
       <c r="C72">
-        <v>-0.01765731343134106</v>
+        <v>-0.02448530878837023</v>
       </c>
       <c r="D72">
-        <v>-0.002463679290715376</v>
+        <v>-0.004886492020516308</v>
       </c>
       <c r="E72">
-        <v>0.0079721248187844</v>
+        <v>0.04484031658342139</v>
       </c>
       <c r="F72">
-        <v>0.05010346039528718</v>
+        <v>-0.02092654914524686</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2143,19 +2143,19 @@
         <v>76</v>
       </c>
       <c r="B73">
-        <v>0.2184563737787292</v>
+        <v>-0.2043633440278383</v>
       </c>
       <c r="C73">
-        <v>-0.02159762115724628</v>
+        <v>-0.01136024181178867</v>
       </c>
       <c r="D73">
-        <v>0.1099479032880955</v>
+        <v>-0.01580454163158002</v>
       </c>
       <c r="E73">
-        <v>0.1548947986218727</v>
+        <v>0.06201976712313685</v>
       </c>
       <c r="F73">
-        <v>0.05872328246038246</v>
+        <v>-0.03587730305934588</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2163,19 +2163,19 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>0.1192934450263534</v>
+        <v>-0.09402546988410707</v>
       </c>
       <c r="C74">
-        <v>-0.08519413537221335</v>
+        <v>-0.01219000493586241</v>
       </c>
       <c r="D74">
-        <v>0.003223501934720728</v>
+        <v>-0.0222413815998512</v>
       </c>
       <c r="E74">
-        <v>0.02693721543280985</v>
+        <v>0.04902272616131954</v>
       </c>
       <c r="F74">
-        <v>0.09619715100492421</v>
+        <v>-0.04245992310007819</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2183,19 +2183,19 @@
         <v>78</v>
       </c>
       <c r="B75">
-        <v>0.1069826876159512</v>
+        <v>-0.1299256717861078</v>
       </c>
       <c r="C75">
-        <v>-0.06092883844065916</v>
+        <v>-0.02641096607677527</v>
       </c>
       <c r="D75">
-        <v>0.003560011196120435</v>
+        <v>-0.03356236066019815</v>
       </c>
       <c r="E75">
-        <v>0.02041301086712568</v>
+        <v>0.06001532741316406</v>
       </c>
       <c r="F75">
-        <v>-0.01289736914336701</v>
+        <v>-0.01442215923934373</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2203,19 +2203,19 @@
         <v>79</v>
       </c>
       <c r="B76">
-        <v>0.02986462326541694</v>
+        <v>-0.004475706971955845</v>
       </c>
       <c r="C76">
-        <v>0.006294066981785583</v>
+        <v>-0.001041223738605238</v>
       </c>
       <c r="D76">
-        <v>0.01124234440327234</v>
+        <v>0.001788556784370388</v>
       </c>
       <c r="E76">
-        <v>0.02471075980171698</v>
+        <v>0.001920268343688713</v>
       </c>
       <c r="F76">
-        <v>0.002019264616032755</v>
+        <v>-0.004069554466712707</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2223,19 +2223,19 @@
         <v>80</v>
       </c>
       <c r="B77">
-        <v>0.06610926546947447</v>
+        <v>-0.07897397114560448</v>
       </c>
       <c r="C77">
-        <v>-0.04698664699866006</v>
+        <v>-0.01030249472943808</v>
       </c>
       <c r="D77">
-        <v>0.03624216031726337</v>
+        <v>-0.1120230548595727</v>
       </c>
       <c r="E77">
-        <v>0.04547335796528944</v>
+        <v>0.0377511324723462</v>
       </c>
       <c r="F77">
-        <v>-0.01924023661939924</v>
+        <v>-0.03423576777065719</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2243,19 +2243,19 @@
         <v>81</v>
       </c>
       <c r="B78">
-        <v>0.1343571782378558</v>
+        <v>-0.1054765614220997</v>
       </c>
       <c r="C78">
-        <v>-0.1172651061454138</v>
+        <v>-0.04181985471100125</v>
       </c>
       <c r="D78">
-        <v>-0.1971712616587885</v>
+        <v>-0.1177854893714119</v>
       </c>
       <c r="E78">
-        <v>-0.1100864897690224</v>
+        <v>0.0848841270989325</v>
       </c>
       <c r="F78">
-        <v>-0.7774522283567571</v>
+        <v>-0.07387332072745505</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2263,19 +2263,19 @@
         <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1296624981585608</v>
+        <v>-0.1645648401803054</v>
       </c>
       <c r="C79">
-        <v>-0.05294866647953431</v>
+        <v>-0.02038465269983279</v>
       </c>
       <c r="D79">
-        <v>-0.0103825494846664</v>
+        <v>-0.01887994357456578</v>
       </c>
       <c r="E79">
-        <v>0.04920616288491881</v>
+        <v>0.04929655424521318</v>
       </c>
       <c r="F79">
-        <v>0.04453046208175876</v>
+        <v>-0.005674913635783428</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2283,19 +2283,19 @@
         <v>83</v>
       </c>
       <c r="B80">
-        <v>0.07803984592159864</v>
+        <v>-0.08036918731947083</v>
       </c>
       <c r="C80">
-        <v>-0.07963448493728813</v>
+        <v>0.000404636645284081</v>
       </c>
       <c r="D80">
-        <v>0.08008069095055392</v>
+        <v>-0.05890062764391985</v>
       </c>
       <c r="E80">
-        <v>0.0174924529959387</v>
+        <v>0.03534846460524899</v>
       </c>
       <c r="F80">
-        <v>0.02293621789750134</v>
+        <v>0.01511694014168288</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2303,19 +2303,19 @@
         <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1366738771846962</v>
+        <v>-0.1232345511141096</v>
       </c>
       <c r="C81">
-        <v>-0.08190690323471497</v>
+        <v>-0.03041673860869917</v>
       </c>
       <c r="D81">
-        <v>0.002002574712990752</v>
+        <v>-0.0183925640794097</v>
       </c>
       <c r="E81">
-        <v>0.04233026310944126</v>
+        <v>0.05958942531821491</v>
       </c>
       <c r="F81">
-        <v>0.008118349539661318</v>
+        <v>-0.004243493180174764</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2323,19 +2323,19 @@
         <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1498862709014929</v>
+        <v>-0.1638633744872827</v>
       </c>
       <c r="C82">
-        <v>-0.07002029736180859</v>
+        <v>-0.02135686713346985</v>
       </c>
       <c r="D82">
-        <v>0.01378708898323671</v>
+        <v>-0.01572915915627717</v>
       </c>
       <c r="E82">
-        <v>0.04633434281859599</v>
+        <v>0.03471557669820724</v>
       </c>
       <c r="F82">
-        <v>0.05840165351473516</v>
+        <v>-0.06036225782598636</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2343,19 +2343,19 @@
         <v>86</v>
       </c>
       <c r="B83">
-        <v>0.08729430450422157</v>
+        <v>-0.06365751841711176</v>
       </c>
       <c r="C83">
-        <v>-0.138945087011171</v>
+        <v>-0.003507976225813355</v>
       </c>
       <c r="D83">
-        <v>0.00595657430338311</v>
+        <v>-0.04872000796346098</v>
       </c>
       <c r="E83">
-        <v>-0.0001152723536727708</v>
+        <v>0.00442989211166211</v>
       </c>
       <c r="F83">
-        <v>0.06196804435223803</v>
+        <v>0.04038778480372198</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2363,19 +2363,19 @@
         <v>87</v>
       </c>
       <c r="B84">
-        <v>0.0542537097976158</v>
+        <v>-0.05937655167422124</v>
       </c>
       <c r="C84">
-        <v>0.09381963947511486</v>
+        <v>-0.0113214166614173</v>
       </c>
       <c r="D84">
-        <v>0.05520217150155451</v>
+        <v>-0.062853022784938</v>
       </c>
       <c r="E84">
-        <v>-0.008810276999746005</v>
+        <v>0.000690220763343793</v>
       </c>
       <c r="F84">
-        <v>-0.2249653888614862</v>
+        <v>-0.01214483186014695</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2383,19 +2383,19 @@
         <v>88</v>
       </c>
       <c r="B85">
-        <v>0.120320403303666</v>
+        <v>-0.1385525820086213</v>
       </c>
       <c r="C85">
-        <v>-0.04227822330504406</v>
+        <v>-0.02585434461053438</v>
       </c>
       <c r="D85">
-        <v>0.008051484052753024</v>
+        <v>-0.01474338665610838</v>
       </c>
       <c r="E85">
-        <v>0.06610502917743497</v>
+        <v>0.04083851898851817</v>
       </c>
       <c r="F85">
-        <v>0.04051313694849427</v>
+        <v>-0.04400457989387951</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2403,19 +2403,19 @@
         <v>89</v>
       </c>
       <c r="B86">
-        <v>0.08866149363044444</v>
+        <v>-0.09821927331494856</v>
       </c>
       <c r="C86">
-        <v>-0.005798799334121215</v>
+        <v>0.006784133877430935</v>
       </c>
       <c r="D86">
-        <v>-0.002866756793014587</v>
+        <v>-0.02033215589168653</v>
       </c>
       <c r="E86">
-        <v>0.142027263690127</v>
+        <v>0.1498500038399058</v>
       </c>
       <c r="F86">
-        <v>-0.3862646349172431</v>
+        <v>0.8619087989723215</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2423,19 +2423,19 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>0.1176622530739724</v>
+        <v>-0.09849928235787624</v>
       </c>
       <c r="C87">
-        <v>-0.1214640982062692</v>
+        <v>-0.02508086093261013</v>
       </c>
       <c r="D87">
-        <v>-0.01247448299114328</v>
+        <v>-0.07653085105209412</v>
       </c>
       <c r="E87">
-        <v>0.07872707208646733</v>
+        <v>-0.05265242689158684</v>
       </c>
       <c r="F87">
-        <v>-0.02586887242019242</v>
+        <v>-0.07849089367858572</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2443,19 +2443,19 @@
         <v>91</v>
       </c>
       <c r="B88">
-        <v>0.0527513510132384</v>
+        <v>-0.06148733654142951</v>
       </c>
       <c r="C88">
-        <v>-0.05075731123607015</v>
+        <v>-0.003093036807360361</v>
       </c>
       <c r="D88">
-        <v>0.04788647539863039</v>
+        <v>-0.05372434174090932</v>
       </c>
       <c r="E88">
-        <v>0.02733138633207458</v>
+        <v>0.02756886781453555</v>
       </c>
       <c r="F88">
-        <v>0.04912276993266397</v>
+        <v>-0.008932129646387892</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2463,19 +2463,19 @@
         <v>92</v>
       </c>
       <c r="B89">
-        <v>0.19694427460288</v>
+        <v>-0.1347023281841682</v>
       </c>
       <c r="C89">
-        <v>0.3625183045899736</v>
+        <v>-0.007785417169921558</v>
       </c>
       <c r="D89">
-        <v>-0.0554734385893959</v>
+        <v>0.2593083359484065</v>
       </c>
       <c r="E89">
-        <v>-0.02598596162507154</v>
+        <v>-0.09121226793103035</v>
       </c>
       <c r="F89">
-        <v>-0.008658834193316606</v>
+        <v>-0.02614654890863837</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2483,19 +2483,19 @@
         <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1514406535899046</v>
+        <v>-0.1449591264238647</v>
       </c>
       <c r="C90">
-        <v>0.258916877963234</v>
+        <v>-0.02505171145345624</v>
       </c>
       <c r="D90">
-        <v>0.01777550210011489</v>
+        <v>0.2679235806891501</v>
       </c>
       <c r="E90">
-        <v>-0.02285395981602515</v>
+        <v>-0.1082020343404849</v>
       </c>
       <c r="F90">
-        <v>0.03930433295199245</v>
+        <v>-0.02658656606314499</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2503,19 +2503,19 @@
         <v>94</v>
       </c>
       <c r="B91">
-        <v>0.07915749951607104</v>
+        <v>-0.1188281964291013</v>
       </c>
       <c r="C91">
-        <v>-0.04066369879937132</v>
+        <v>-0.01677404838327943</v>
       </c>
       <c r="D91">
-        <v>0.003096233139453575</v>
+        <v>0.007303995252118923</v>
       </c>
       <c r="E91">
-        <v>0.04547025134247038</v>
+        <v>0.05725877559222798</v>
       </c>
       <c r="F91">
-        <v>0.0199919573756178</v>
+        <v>0.02026417203605354</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2523,19 +2523,19 @@
         <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1724178114997472</v>
+        <v>-0.148870365303255</v>
       </c>
       <c r="C92">
-        <v>0.2926876221986624</v>
+        <v>-0.01704242000563838</v>
       </c>
       <c r="D92">
-        <v>-0.0311484562157485</v>
+        <v>0.2985865850453269</v>
       </c>
       <c r="E92">
-        <v>-0.03349722849066005</v>
+        <v>-0.103176957172387</v>
       </c>
       <c r="F92">
-        <v>-0.004457673164342633</v>
+        <v>-0.02323936409608156</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2543,19 +2543,19 @@
         <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1543957179415364</v>
+        <v>-0.1498125422440454</v>
       </c>
       <c r="C93">
-        <v>0.3170069203418752</v>
+        <v>-0.0217449410429013</v>
       </c>
       <c r="D93">
-        <v>0.0459548109855661</v>
+        <v>0.2703474206301676</v>
       </c>
       <c r="E93">
-        <v>-0.02867086208399972</v>
+        <v>-0.07353779867752908</v>
       </c>
       <c r="F93">
-        <v>0.02492862647015816</v>
+        <v>-0.01857165225533695</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2563,19 +2563,19 @@
         <v>97</v>
       </c>
       <c r="B94">
-        <v>0.1343636165807319</v>
+        <v>-0.1333186926959023</v>
       </c>
       <c r="C94">
-        <v>-0.06072148357977684</v>
+        <v>-0.0238694108787</v>
       </c>
       <c r="D94">
-        <v>-0.008717686885641481</v>
+        <v>-0.04575051242182159</v>
       </c>
       <c r="E94">
-        <v>0.03132513999378712</v>
+        <v>0.06090358834872606</v>
       </c>
       <c r="F94">
-        <v>0.02124336227640942</v>
+        <v>-0.03170054515095155</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2583,19 +2583,19 @@
         <v>98</v>
       </c>
       <c r="B95">
-        <v>0.1205069972616684</v>
+        <v>-0.1261867784253424</v>
       </c>
       <c r="C95">
-        <v>-0.05386501997714139</v>
+        <v>-0.005591185771477357</v>
       </c>
       <c r="D95">
-        <v>-0.01387941130952985</v>
+        <v>-0.09071525846973361</v>
       </c>
       <c r="E95">
-        <v>0.03688939700353511</v>
+        <v>0.04378349863466375</v>
       </c>
       <c r="F95">
-        <v>-0.102098627912923</v>
+        <v>0.0105732595477463</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2603,19 +2603,19 @@
         <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.007764263644005517</v>
+        <v>-0.09856663414034217</v>
       </c>
       <c r="C96">
-        <v>-0.006707179310455309</v>
+        <v>0.9889430188968666</v>
       </c>
       <c r="D96">
-        <v>0.0001001163243963049</v>
+        <v>0.02706635952628066</v>
       </c>
       <c r="E96">
-        <v>1.153334254270287e-05</v>
+        <v>0.05810777111459779</v>
       </c>
       <c r="F96">
-        <v>-0.02131088305506651</v>
+        <v>-0.04803757927756156</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2623,19 +2623,19 @@
         <v>100</v>
       </c>
       <c r="B97">
-        <v>0.1764409159625146</v>
+        <v>-0.1881162356448888</v>
       </c>
       <c r="C97">
-        <v>-0.1801381425348964</v>
+        <v>0.01121291593481131</v>
       </c>
       <c r="D97">
-        <v>-0.09652773376882182</v>
+        <v>0.006736404450860267</v>
       </c>
       <c r="E97">
-        <v>-0.8927494360852348</v>
+        <v>0.01927980386016823</v>
       </c>
       <c r="F97">
-        <v>0.0780950787176036</v>
+        <v>0.1810207354721347</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2643,19 +2643,19 @@
         <v>101</v>
       </c>
       <c r="B98">
-        <v>0.2364275659029932</v>
+        <v>-0.2049578879142216</v>
       </c>
       <c r="C98">
-        <v>-0.04015637570140268</v>
+        <v>-0.006966580264409355</v>
       </c>
       <c r="D98">
-        <v>-0.1017494495121042</v>
+        <v>-0.01176702746030137</v>
       </c>
       <c r="E98">
-        <v>0.02155500328764949</v>
+        <v>-0.096948430505606</v>
       </c>
       <c r="F98">
-        <v>-0.01154064069369652</v>
+        <v>0.1193336381680932</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2663,19 +2663,19 @@
         <v>102</v>
       </c>
       <c r="B99">
-        <v>0.05357539541740265</v>
+        <v>-0.05672917417455528</v>
       </c>
       <c r="C99">
-        <v>-0.007088559647278903</v>
+        <v>0.003735120773881143</v>
       </c>
       <c r="D99">
-        <v>-0.005529102369601312</v>
+        <v>-0.03571953084491701</v>
       </c>
       <c r="E99">
-        <v>0.009044367625623695</v>
+        <v>0.02678507011529281</v>
       </c>
       <c r="F99">
-        <v>0.01049361996219671</v>
+        <v>-0.004932118765201681</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2683,19 +2683,19 @@
         <v>103</v>
       </c>
       <c r="B100">
-        <v>0.01466762469403977</v>
+        <v>-0.1243969216496005</v>
       </c>
       <c r="C100">
-        <v>-0.03567323275465761</v>
+        <v>0.04935735885654367</v>
       </c>
       <c r="D100">
-        <v>0.0004300604946149765</v>
+        <v>-0.3429041664994991</v>
       </c>
       <c r="E100">
-        <v>-0.1009018529976193</v>
+        <v>-0.8966189952970386</v>
       </c>
       <c r="F100">
-        <v>0.07418138493567233</v>
+        <v>0.07308318161967986</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2703,19 +2703,19 @@
         <v>104</v>
       </c>
       <c r="B101">
-        <v>0.03513027645235723</v>
+        <v>-0.02699785349684527</v>
       </c>
       <c r="C101">
-        <v>-0.03077566635158295</v>
+        <v>-0.008876306087759009</v>
       </c>
       <c r="D101">
-        <v>0.02884091852201911</v>
+        <v>-0.0312733320309956</v>
       </c>
       <c r="E101">
-        <v>0.03338455979037332</v>
+        <v>0.01147999509624031</v>
       </c>
       <c r="F101">
-        <v>0.01819230947515418</v>
+        <v>0.01304833424243567</v>
       </c>
     </row>
     <row r="102" spans="1:6">
